--- a/models/ids/ID_Region.xlsx
+++ b/models/ids/ID_Region.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022C1DA-2342-904C-B575-7180CF7320DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="966">
   <si>
     <t>Germany</t>
   </si>
@@ -2630,12 +2629,300 @@
   </si>
   <si>
     <t>DEG0P</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Tübingen</t>
+  </si>
+  <si>
+    <t>Oberbayern</t>
+  </si>
+  <si>
+    <t>Niederbayern</t>
+  </si>
+  <si>
+    <t>Oberpfalz</t>
+  </si>
+  <si>
+    <t>Oberfranken</t>
+  </si>
+  <si>
+    <t>Mittelfranken</t>
+  </si>
+  <si>
+    <t>Unterfranken</t>
+  </si>
+  <si>
+    <t>Schwaben</t>
+  </si>
+  <si>
+    <t>Brandenburg</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>Gießen</t>
+  </si>
+  <si>
+    <t>Kassel</t>
+  </si>
+  <si>
+    <t>Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Lüneburg</t>
+  </si>
+  <si>
+    <t>Weser-Ems</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Münster</t>
+  </si>
+  <si>
+    <t>Detmold</t>
+  </si>
+  <si>
+    <t>Arnsberg</t>
+  </si>
+  <si>
+    <t>Koblenz</t>
+  </si>
+  <si>
+    <t>Trier</t>
+  </si>
+  <si>
+    <t>Rheinhessen-Pfalz</t>
+  </si>
+  <si>
+    <t>Saarland</t>
+  </si>
+  <si>
+    <t>Dresden</t>
+  </si>
+  <si>
+    <t>Chemnitz</t>
+  </si>
+  <si>
+    <t>Sachsen-Anhalt</t>
+  </si>
+  <si>
+    <t>Schleswig-Holstein</t>
+  </si>
+  <si>
+    <t>Thüringen</t>
+  </si>
+  <si>
+    <t>DE11</t>
+  </si>
+  <si>
+    <t>DE12</t>
+  </si>
+  <si>
+    <t>DE13</t>
+  </si>
+  <si>
+    <t>DE14</t>
+  </si>
+  <si>
+    <t>DE21</t>
+  </si>
+  <si>
+    <t>DE22</t>
+  </si>
+  <si>
+    <t>DE23</t>
+  </si>
+  <si>
+    <t>DE24</t>
+  </si>
+  <si>
+    <t>DE25</t>
+  </si>
+  <si>
+    <t>DE26</t>
+  </si>
+  <si>
+    <t>DE27</t>
+  </si>
+  <si>
+    <t>DE30</t>
+  </si>
+  <si>
+    <t>DE40</t>
+  </si>
+  <si>
+    <t>DE50</t>
+  </si>
+  <si>
+    <t>DE60</t>
+  </si>
+  <si>
+    <t>DE71</t>
+  </si>
+  <si>
+    <t>DE72</t>
+  </si>
+  <si>
+    <t>DE73</t>
+  </si>
+  <si>
+    <t>DE80</t>
+  </si>
+  <si>
+    <t>DE91</t>
+  </si>
+  <si>
+    <t>DE92</t>
+  </si>
+  <si>
+    <t>DE93</t>
+  </si>
+  <si>
+    <t>DE94</t>
+  </si>
+  <si>
+    <t>DEA1</t>
+  </si>
+  <si>
+    <t>DEA2</t>
+  </si>
+  <si>
+    <t>DEA3</t>
+  </si>
+  <si>
+    <t>DEA4</t>
+  </si>
+  <si>
+    <t>DEA5</t>
+  </si>
+  <si>
+    <t>DEB1</t>
+  </si>
+  <si>
+    <t>DEB2</t>
+  </si>
+  <si>
+    <t>DEB3</t>
+  </si>
+  <si>
+    <t>DEC0</t>
+  </si>
+  <si>
+    <t>DED2</t>
+  </si>
+  <si>
+    <t>DED4</t>
+  </si>
+  <si>
+    <t>DED5</t>
+  </si>
+  <si>
+    <t>DEE0</t>
+  </si>
+  <si>
+    <t>DEF0</t>
+  </si>
+  <si>
+    <t>DEG0</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Hessen</t>
+  </si>
+  <si>
+    <t>Niedersachsen</t>
+  </si>
+  <si>
+    <t>Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t>Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t>Sachsen</t>
+  </si>
+  <si>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>DE2</t>
+  </si>
+  <si>
+    <t>DE3</t>
+  </si>
+  <si>
+    <t>DE4</t>
+  </si>
+  <si>
+    <t>DE5</t>
+  </si>
+  <si>
+    <t>DE6</t>
+  </si>
+  <si>
+    <t>DE7</t>
+  </si>
+  <si>
+    <t>DE8</t>
+  </si>
+  <si>
+    <t>DE9</t>
+  </si>
+  <si>
+    <t>DEA</t>
+  </si>
+  <si>
+    <t>DEB</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>DED</t>
+  </si>
+  <si>
+    <t>DEE</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>DEG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2665,12 +2952,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2689,12 +2977,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C435" totalsRowShown="0">
-  <autoFilter ref="A1:C435" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C489" totalsRowShown="0">
+  <autoFilter ref="A1:C489"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NUTS_Code"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="2" name="name"/>
+    <tableColumn id="3" name="NUTS_Code"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2962,21 +3250,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C435"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="K398" sqref="K398"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D407" sqref="D407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2987,7 +3275,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2998,7 +3286,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3009,7 +3297,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3020,7 +3308,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3031,7 +3319,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3042,7 +3330,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3053,7 +3341,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3064,7 +3352,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3075,7 +3363,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3086,7 +3374,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3097,7 +3385,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3108,7 +3396,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3119,7 +3407,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3130,7 +3418,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3141,7 +3429,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3152,7 +3440,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3163,7 +3451,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3174,7 +3462,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3185,7 +3473,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3196,7 +3484,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3207,7 +3495,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3218,7 +3506,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3229,7 +3517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3240,7 +3528,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3251,7 +3539,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3262,7 +3550,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3273,7 +3561,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3284,7 +3572,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3295,7 +3583,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3306,7 +3594,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3317,7 +3605,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3328,7 +3616,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3339,7 +3627,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3350,4414 +3638,5008 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>901</v>
+      </c>
+      <c r="B35" t="s">
+        <v>943</v>
+      </c>
+      <c r="C35" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>902</v>
+      </c>
+      <c r="B36" t="s">
+        <v>944</v>
+      </c>
+      <c r="C36" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>903</v>
+      </c>
+      <c r="B37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>904</v>
+      </c>
+      <c r="B38" t="s">
+        <v>881</v>
+      </c>
+      <c r="C38" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>905</v>
+      </c>
+      <c r="B39" t="s">
+        <v>882</v>
+      </c>
+      <c r="C39" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>906</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>907</v>
+      </c>
+      <c r="B41" t="s">
+        <v>945</v>
+      </c>
+      <c r="C41" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>908</v>
+      </c>
+      <c r="B42" t="s">
+        <v>886</v>
+      </c>
+      <c r="C42" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>909</v>
+      </c>
+      <c r="B43" t="s">
+        <v>946</v>
+      </c>
+      <c r="C43" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>910</v>
+      </c>
+      <c r="B44" t="s">
+        <v>947</v>
+      </c>
+      <c r="C44" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>911</v>
+      </c>
+      <c r="B45" t="s">
+        <v>948</v>
+      </c>
+      <c r="C45" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>912</v>
+      </c>
+      <c r="B46" t="s">
+        <v>899</v>
+      </c>
+      <c r="C46" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>913</v>
+      </c>
+      <c r="B47" t="s">
+        <v>949</v>
+      </c>
+      <c r="C47" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>914</v>
+      </c>
+      <c r="B48" t="s">
+        <v>902</v>
+      </c>
+      <c r="C48" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>915</v>
+      </c>
+      <c r="B49" t="s">
+        <v>903</v>
+      </c>
+      <c r="C49" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>916</v>
+      </c>
+      <c r="B50" t="s">
+        <v>904</v>
+      </c>
+      <c r="C50" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>90101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>870</v>
+      </c>
+      <c r="C51" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>90102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>871</v>
+      </c>
+      <c r="C52" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>90103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>872</v>
+      </c>
+      <c r="C53" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>90104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>873</v>
+      </c>
+      <c r="C54" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>90201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>874</v>
+      </c>
+      <c r="C55" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>90202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>875</v>
+      </c>
+      <c r="C56" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>90203</v>
+      </c>
+      <c r="B57" t="s">
+        <v>876</v>
+      </c>
+      <c r="C57" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>90204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>877</v>
+      </c>
+      <c r="C58" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>90205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>878</v>
+      </c>
+      <c r="C59" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>90206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>879</v>
+      </c>
+      <c r="C60" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>90207</v>
+      </c>
+      <c r="B61" t="s">
+        <v>880</v>
+      </c>
+      <c r="C61" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>90300</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>90400</v>
+      </c>
+      <c r="B63" t="s">
+        <v>881</v>
+      </c>
+      <c r="C63" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>90500</v>
+      </c>
+      <c r="B64" t="s">
+        <v>882</v>
+      </c>
+      <c r="C64" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>90600</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>90701</v>
+      </c>
+      <c r="B66" t="s">
+        <v>883</v>
+      </c>
+      <c r="C66" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>90702</v>
+      </c>
+      <c r="B67" t="s">
+        <v>884</v>
+      </c>
+      <c r="C67" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>90703</v>
+      </c>
+      <c r="B68" t="s">
+        <v>885</v>
+      </c>
+      <c r="C68" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>90800</v>
+      </c>
+      <c r="B69" t="s">
+        <v>886</v>
+      </c>
+      <c r="C69" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>90901</v>
+      </c>
+      <c r="B70" t="s">
+        <v>887</v>
+      </c>
+      <c r="C70" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>90902</v>
+      </c>
+      <c r="B71" t="s">
+        <v>888</v>
+      </c>
+      <c r="C71" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>90903</v>
+      </c>
+      <c r="B72" t="s">
+        <v>889</v>
+      </c>
+      <c r="C72" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>90904</v>
+      </c>
+      <c r="B73" t="s">
+        <v>890</v>
+      </c>
+      <c r="C73" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>91001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>891</v>
+      </c>
+      <c r="C74" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>91002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>892</v>
+      </c>
+      <c r="C75" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>91003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>893</v>
+      </c>
+      <c r="C76" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>91004</v>
+      </c>
+      <c r="B77" t="s">
+        <v>894</v>
+      </c>
+      <c r="C77" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>91005</v>
+      </c>
+      <c r="B78" t="s">
+        <v>895</v>
+      </c>
+      <c r="C78" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>91101</v>
+      </c>
+      <c r="B79" t="s">
+        <v>896</v>
+      </c>
+      <c r="C79" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>91102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>897</v>
+      </c>
+      <c r="C80" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>91103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>898</v>
+      </c>
+      <c r="C81" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>91200</v>
+      </c>
+      <c r="B82" t="s">
+        <v>899</v>
+      </c>
+      <c r="C82" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>91302</v>
+      </c>
+      <c r="B83" t="s">
+        <v>900</v>
+      </c>
+      <c r="C83" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>91304</v>
+      </c>
+      <c r="B84" t="s">
+        <v>901</v>
+      </c>
+      <c r="C84" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>91305</v>
+      </c>
+      <c r="B85" t="s">
+        <v>382</v>
+      </c>
+      <c r="C85" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>91400</v>
+      </c>
+      <c r="B86" t="s">
+        <v>902</v>
+      </c>
+      <c r="C86" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>91500</v>
+      </c>
+      <c r="B87" t="s">
+        <v>903</v>
+      </c>
+      <c r="C87" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>91600</v>
+      </c>
+      <c r="B88" t="s">
+        <v>904</v>
+      </c>
+      <c r="C88" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>9010101</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C89" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>9010102</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C90" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>9010103</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C91" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>9010104</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C92" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>9010105</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C93" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>9010106</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C94" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>9010107</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C95" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>9010108</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C96" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>9010109</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C97" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>9010110</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C98" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>9010111</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C99" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>9010112</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B100" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C100" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>9010113</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C101" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>9010201</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C102" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>9010202</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C103" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>9010203</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C104" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>9010204</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C105" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>9010205</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C106" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>9010206</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C107" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>9010207</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C108" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>9010208</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C109" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>9010209</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C110" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>9010210</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C111" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>9010211</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C112" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>9010212</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C113" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>9010301</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C114" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>9010302</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C115" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>9010303</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C116" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>9010304</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C117" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>9010305</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C118" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>9010306</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C119" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>9010307</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C120" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>9010308</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C121" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>9010309</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C122" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>9010310</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C123" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>9010401</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C124" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
         <v>9010402</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C125" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
         <v>9010403</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C126" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>9010404</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C127" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>9010405</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B128" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C128" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>9010406</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B129" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C129" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
         <v>9010407</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B130" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C130" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>9010408</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C131" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>9010409</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C132" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>9020101</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C133" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>9020102</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C134" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>9020103</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C135" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
         <v>9020104</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C136" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
         <v>9020105</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C137" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>9020106</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C138" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
         <v>9020107</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C139" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
         <v>9020108</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C140" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
         <v>9020109</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C141" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
         <v>9020110</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C142" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
         <v>9020111</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C143" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
         <v>9020112</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C144" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>9020113</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B145" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C145" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>9020114</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C146" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>9020115</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B147" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C147" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>9020116</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C148" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>9020117</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C149" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>9020118</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C150" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>9020119</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C151" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>9020120</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C152" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>9020121</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C153" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>9020122</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C154" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>9020123</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B155" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C155" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>9020201</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C156" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>9020202</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C157" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>9020203</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C158" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>9020204</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B159" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C159" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>9020205</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C160" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>9020206</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B161" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C161" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>9020207</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C162" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>9020208</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C163" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>9020209</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B164" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C164" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>9020210</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B165" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C165" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>9020211</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C166" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>9020212</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B167" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C167" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>9020301</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C168" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
         <v>9020302</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C169" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
         <v>9020303</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C170" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
         <v>9020304</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C171" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
         <v>9020305</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C172" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
         <v>9020306</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C173" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
         <v>9020307</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C174" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
         <v>9020308</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C175" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
         <v>9020309</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C176" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>9020310</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C177" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>9020401</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C178" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>9020402</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C179" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>9020403</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C180" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>9020404</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C181" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>9020405</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C182" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>9020406</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C183" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>9020407</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C184" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>9020408</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B185" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C185" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>9020409</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C186" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>9020410</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C187" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>9020411</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C188" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>9020412</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C189" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>9020413</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C190" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>9020501</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C191" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>9020502</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C192" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>9020503</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C193" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>9020504</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C194" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>9020505</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C195" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>9020506</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C196" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>9020507</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B197" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C197" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>9020508</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C198" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>9020509</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B199" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C199" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>9020510</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C200" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>9020511</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B201" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C201" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>9020512</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B202" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C202" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>9020601</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C203" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>9020602</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C204" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>9020603</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C205" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>9020604</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C206" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>9020605</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B207" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C207" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>9020606</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C208" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>9020607</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B209" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C209" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>9020608</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B210" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C210" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>9020609</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B211" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C211" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>9020610</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B212" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C212" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>9020611</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C213" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>9020612</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C214" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>9020701</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C215" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>9020702</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C216" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>9020703</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C217" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>9020704</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C218" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>9020705</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C219" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>9020706</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C220" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>9020707</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C221" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>9020708</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C222" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>9020709</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B223" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C223" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>9020710</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C224" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
         <v>9020711</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B225" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C225" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
         <v>9020712</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C226" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
         <v>9020713</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B227" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C227" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
         <v>9020714</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B228" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C228" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
         <v>9030000</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C229" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
         <v>9040001</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C230" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
         <v>9040002</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C231" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
         <v>9040003</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C232" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>9040004</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C233" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>9040005</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C234" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>9040006</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C235" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
         <v>9040007</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B236" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C236" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
         <v>9040008</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B237" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C237" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
         <v>9040009</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C238" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
         <v>9040010</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B239" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C239" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
         <v>9040011</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B240" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C240" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
         <v>9040012</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C241" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>9040013</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B242" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C242" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
         <v>9040014</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C243" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
         <v>9040015</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C244" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>9040016</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B245" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C245" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>9040017</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C246" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
         <v>9040018</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B247" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C247" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
         <v>9050001</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C248" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>9050002</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C249" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>9060000</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C250" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>9070101</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C251" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>9070102</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C252" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A199">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
         <v>9070103</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C253" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
         <v>9070104</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C254" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
         <v>9070105</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B255" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C255" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
         <v>9070106</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B256" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C256" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
         <v>9070107</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C257" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
         <v>9070108</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B258" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C258" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
         <v>9070109</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B259" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C259" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
         <v>9070110</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C260" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
         <v>9070111</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B261" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C261" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
         <v>9070112</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C262" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
         <v>9070113</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B263" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C263" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
         <v>9070114</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B264" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C264" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
         <v>9070201</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C265" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>9070202</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B266" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C266" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
         <v>9070203</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B267" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C267" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
         <v>9070204</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B268" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C268" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
         <v>9070205</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B269" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C269" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
         <v>9070301</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C270" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
         <v>9070302</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B271" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C271" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
         <v>9070303</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B272" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C272" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
         <v>9070304</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C273" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
         <v>9070305</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B274" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C274" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
         <v>9070306</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C275" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
         <v>9070307</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B276" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C276" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
         <v>9080003</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C277" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
         <v>9080004</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C278" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
         <v>9080019</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C279" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
         <v>9080020</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C280" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
         <v>9080021</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C281" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
         <v>9080022</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C282" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>9080023</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C283" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
         <v>9080024</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C284" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
         <v>9090101</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C285" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
         <v>9090102</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C286" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
         <v>9090103</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C287" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
         <v>9090104</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B288" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C288" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
         <v>9090106</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B289" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C289" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
         <v>9090107</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B290" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C290" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
         <v>9090108</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B291" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C291" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
         <v>9090110</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C292" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
         <v>9090111</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C293" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
         <v>9090112</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B294" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C294" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
         <v>9090202</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B295" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C295" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
         <v>9090203</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B296" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C296" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
         <v>9090205</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B297" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C297" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
         <v>9090206</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B298" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C298" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
         <v>9090207</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B299" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C299" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
         <v>9090208</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B300" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C300" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>9090209</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B301" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C301" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
         <v>9090301</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B302" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C302" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>9090302</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B303" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C303" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
         <v>9090303</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B304" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C304" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
         <v>9090304</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B305" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C305" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
         <v>9090305</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B306" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C306" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
         <v>9090306</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C307" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
         <v>9090307</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B308" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C308" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
         <v>9090308</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B309" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C309" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
         <v>9090309</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B310" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C310" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
         <v>9090310</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B311" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C311" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
         <v>9090311</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B312" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C312" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
         <v>9090401</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C313" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
         <v>9090402</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C314" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
         <v>9090403</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C315" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
         <v>9090404</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C316" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
         <v>9090405</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C317" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
         <v>9090406</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B318" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C318" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
         <v>9090407</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B319" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C319" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
         <v>9090408</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B320" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C320" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
         <v>9090409</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B321" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C321" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
         <v>9090410</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C322" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
         <v>9090411</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B323" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C323" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
         <v>9090412</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B324" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C324" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
         <v>9090413</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C325" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
         <v>9090414</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C326" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
         <v>9090415</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B327" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C327" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
         <v>9090416</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B328" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C328" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
         <v>9090417</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C329" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
         <v>9100101</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C330" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A277">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
         <v>9100102</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C331" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A278">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
         <v>9100103</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C332" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
         <v>9100104</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C333" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A280">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
         <v>9100105</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C334" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A281">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
         <v>9100106</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C335" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
         <v>9100107</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C336" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
         <v>9100108</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C337" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
         <v>9100109</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C338" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
         <v>9100110</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C339" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
         <v>9100111</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B340" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C340" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
         <v>9100112</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B341" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C341" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
         <v>9100113</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B342" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C342" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
         <v>9100114</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B343" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C343" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
         <v>9100115</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C344" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A291">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
         <v>9100202</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C345" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
         <v>9100203</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C346" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
         <v>9100204</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C347" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
         <v>9100206</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B348" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C348" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
         <v>9100207</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B349" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C349" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
         <v>9100208</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B350" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C350" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
         <v>9100209</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B351" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C351" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
         <v>9100210</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C352" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
         <v>9100211</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B353" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C353" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
         <v>9100212</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C354" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
         <v>9100213</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B355" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C355" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A302">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
         <v>9100301</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C356" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
         <v>9100302</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C357" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
         <v>9100303</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C358" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
         <v>9100304</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B359" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C359" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
         <v>9100305</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B360" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C360" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
         <v>9100306</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B361" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C361" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
         <v>9100307</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B362" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C362" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
         <v>9100308</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B363" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C363" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A310">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
         <v>9100401</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C364" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
         <v>9100402</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B365" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C365" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
         <v>9100403</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B366" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C366" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
         <v>9100404</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B367" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C367" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
         <v>9100405</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B368" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C314" t="s">
+      <c r="C368" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
         <v>9100406</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B369" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C369" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
         <v>9100407</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B370" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C370" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A317">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
         <v>9100501</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C371" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A318">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
         <v>9100502</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C372" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A319">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
         <v>9100503</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C373" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A320">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
         <v>9100504</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C374" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A321">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
         <v>9100505</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C375" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
         <v>9100506</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B376" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C376" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
         <v>9100507</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B377" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C377" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
         <v>9100508</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B378" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C378" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
         <v>9100509</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B379" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C379" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
         <v>9100510</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B380" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C380" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
         <v>9100511</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B381" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C381" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
         <v>9100512</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B382" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C382" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
         <v>9110101</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C383" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
         <v>9110102</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C384" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
         <v>9110103</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B385" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C385" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
         <v>9110104</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B386" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C386" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
         <v>9110105</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B387" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C387" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
         <v>9110107</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B388" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C388" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
         <v>9110108</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B389" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C389" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
         <v>9110110</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B390" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C390" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
         <v>9110111</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B391" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C391" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
         <v>9110112</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B392" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C392" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
         <v>9110113</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B393" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C393" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A340">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
         <v>9110201</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C394" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
         <v>9110202</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B395" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C395" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
         <v>9110203</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B396" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C396" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
         <v>9110204</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B397" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C397" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
         <v>9110205</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B398" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C398" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A345">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
         <v>9110301</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C399" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A346">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
         <v>9110302</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C400" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A347">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
         <v>9110303</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C401" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
         <v>9110304</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B402" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C402" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A349">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
         <v>9110305</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B403" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C403" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A350">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
         <v>9110306</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B404" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C404" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A351">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
         <v>9110307</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="B405" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C405" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A352">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
         <v>9110308</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C406" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A353">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
         <v>9110309</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C407" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A354">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
         <v>9110310</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C408" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
         <v>9110311</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C409" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
         <v>9110312</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B410" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C410" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
         <v>9110313</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B411" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C411" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
         <v>9110314</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B412" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C412" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
         <v>9110315</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C413" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
         <v>9110316</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C414" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
         <v>9110317</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C415" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
         <v>9110318</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C416" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
         <v>9110319</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C417" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
         <v>9110320</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B418" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C418" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
         <v>9120001</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B419" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C419" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
         <v>9120002</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B420" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C420" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
         <v>9120003</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B421" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C421" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
         <v>9120004</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C422" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
         <v>9120005</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B423" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C423" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
         <v>9120006</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B424" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C424" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A371">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
         <v>9130201</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C425" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
         <v>9130212</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B426" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C426" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
         <v>9130213</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B427" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C427" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
         <v>9130214</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B428" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C428" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
         <v>9130215</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B429" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C429" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A376">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
         <v>9130401</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="B430" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C430" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
         <v>9130402</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B431" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C431" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
         <v>9130403</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B432" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C432" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
         <v>9130404</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C433" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
         <v>9130405</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B434" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C434" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A381">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
         <v>9130501</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C435" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
         <v>9130502</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B436" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C436" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
         <v>9130503</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B437" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C437" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A384">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
         <v>9140001</v>
       </c>
-      <c r="B384" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C438" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A385">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
         <v>9140002</v>
       </c>
-      <c r="B385" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C439" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A386">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
         <v>9140003</v>
       </c>
-      <c r="B386" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C440" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
         <v>9140004</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B441" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C441" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
         <v>9140005</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B442" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C442" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
         <v>9140006</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C443" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
         <v>9140007</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B444" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C444" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
         <v>9140008</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B445" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C445" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
         <v>9140009</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B446" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C446" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
         <v>9140010</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B447" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C447" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
         <v>9140011</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B448" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C448" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
         <v>9140012</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C449" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
         <v>9140013</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C450" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
         <v>9140014</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C451" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A398">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
         <v>9150001</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C452" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A399">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
         <v>9150002</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C453" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A400">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
         <v>9150003</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C454" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A401">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
         <v>9150004</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C455" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
         <v>9150005</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B456" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C456" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
         <v>9150006</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B457" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C457" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
         <v>9150007</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B458" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C458" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
         <v>9150008</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B459" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C459" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
         <v>9150009</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B460" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C460" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
         <v>9150010</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B461" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C461" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
         <v>9150011</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B462" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C462" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
         <v>9150012</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B463" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C463" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
         <v>9150013</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B464" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C464" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
         <v>9150014</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B465" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C465" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
         <v>9150015</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B466" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C466" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A413">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
         <v>9160001</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C467" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A414">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
         <v>9160002</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C468" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A415">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
         <v>9160003</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C469" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A416">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
         <v>9160004</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B470" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C470" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A417">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
         <v>9160005</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C471" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
         <v>9160006</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B472" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C472" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
         <v>9160007</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B473" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C473" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
         <v>9160009</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B474" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C474" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
         <v>9160010</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B475" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C475" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
         <v>9160011</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C476" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
         <v>9160012</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B477" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C477" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
         <v>9160013</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B478" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C478" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
         <v>9160014</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B479" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C479" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
         <v>9160015</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B480" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C480" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
         <v>9160016</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B481" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C481" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
         <v>9160017</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B482" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C482" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
         <v>9160018</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B483" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C483" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
         <v>9160019</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B484" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C484" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
         <v>9160020</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B485" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C485" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
         <v>9160021</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B486" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C486" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
         <v>9160022</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B487" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C487" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A434">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
         <v>9160023</v>
       </c>
-      <c r="B434" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C488" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
         <v>9160025</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B489" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C489" t="s">
         <v>869</v>
       </c>
     </row>

--- a/models/ids/ID_Region.xlsx
+++ b/models/ids/ID_Region.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8FF6B-D875-AC4D-BCD2-81D40528F0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5300" yWindow="-20060" windowWidth="22260" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="967">
   <si>
     <t>Germany</t>
   </si>
@@ -1329,9 +1330,6 @@
     <t>Wartburgkreis</t>
   </si>
   <si>
-    <t>NUTS_Code</t>
-  </si>
-  <si>
     <t>AT</t>
   </si>
   <si>
@@ -2917,12 +2915,18 @@
   </si>
   <si>
     <t>DEG</t>
+  </si>
+  <si>
+    <t>nuts_code</t>
+  </si>
+  <si>
+    <t>region_level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2952,13 +2956,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2977,12 +2980,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C489" totalsRowShown="0">
-  <autoFilter ref="A1:C489"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="id_region"/>
-    <tableColumn id="2" name="name"/>
-    <tableColumn id="3" name="NUTS_Code"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D489" totalsRowShown="0">
+  <autoFilter ref="A1:D489" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="nuts_code"/>
+    <tableColumn id="4" xr3:uid="{FF6A8E58-BA20-5345-B2C4-C6D63641BBEB}" name="region_level"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3250,21 +3254,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C489"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3272,10 +3277,13 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+      <c r="D1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3283,10 +3291,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3294,21 +3305,27 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3316,10 +3333,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3327,10 +3347,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3338,10 +3361,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3349,10 +3375,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3360,10 +3389,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3371,10 +3403,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3382,10 +3417,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3393,10 +3431,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3404,10 +3445,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3415,10 +3459,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3426,10 +3473,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3437,10 +3487,13 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3448,10 +3501,13 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3459,10 +3515,13 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3470,10 +3529,13 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3481,10 +3543,13 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3492,10 +3557,13 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3503,10 +3571,13 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3514,10 +3585,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3525,10 +3599,13 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3536,10 +3613,13 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3547,10 +3627,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3558,10 +3641,13 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3569,10 +3655,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3580,10 +3669,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3591,10 +3683,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3602,10 +3697,13 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3613,10 +3711,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3624,10 +3725,13 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3635,32 +3739,41 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>901</v>
       </c>
       <c r="B35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C35" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>902</v>
       </c>
       <c r="B36" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C36" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>903</v>
       </c>
@@ -3668,32 +3781,41 @@
         <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>904</v>
       </c>
       <c r="B38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C38" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>905</v>
       </c>
       <c r="B39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C39" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>906</v>
       </c>
@@ -3701,241 +3823,307 @@
         <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>907</v>
       </c>
       <c r="B41" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C41" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>908</v>
       </c>
       <c r="B42" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C42" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>909</v>
       </c>
       <c r="B43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C43" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>910</v>
       </c>
       <c r="B44" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C44" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>911</v>
       </c>
       <c r="B45" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C45" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>912</v>
       </c>
       <c r="B46" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C46" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>913</v>
       </c>
       <c r="B47" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C47" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>914</v>
       </c>
       <c r="B48" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C48" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>915</v>
       </c>
       <c r="B49" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C49" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>916</v>
       </c>
       <c r="B50" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C50" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>90101</v>
       </c>
       <c r="B51" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C51" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>90102</v>
       </c>
       <c r="B52" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C52" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>90103</v>
       </c>
       <c r="B53" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C53" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>90104</v>
       </c>
       <c r="B54" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C54" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>90201</v>
       </c>
       <c r="B55" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C55" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>90202</v>
       </c>
       <c r="B56" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C56" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>90203</v>
       </c>
       <c r="B57" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C57" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>90204</v>
       </c>
       <c r="B58" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C58" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>90205</v>
       </c>
       <c r="B59" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C59" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>90206</v>
       </c>
       <c r="B60" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C60" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>90207</v>
       </c>
       <c r="B61" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C61" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>90300</v>
       </c>
@@ -3943,32 +4131,41 @@
         <v>175</v>
       </c>
       <c r="C62" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>90400</v>
       </c>
       <c r="B63" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C63" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>90500</v>
       </c>
       <c r="B64" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C64" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>90600</v>
       </c>
@@ -3976,219 +4173,279 @@
         <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>90701</v>
       </c>
       <c r="B66" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C66" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>90702</v>
       </c>
       <c r="B67" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C67" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>90703</v>
       </c>
       <c r="B68" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C68" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>90800</v>
       </c>
       <c r="B69" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C69" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>90901</v>
       </c>
       <c r="B70" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C70" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>90902</v>
       </c>
       <c r="B71" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C71" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>90903</v>
       </c>
       <c r="B72" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C72" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>90904</v>
       </c>
       <c r="B73" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C73" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>91001</v>
       </c>
       <c r="B74" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C74" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>91002</v>
       </c>
       <c r="B75" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C75" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>91003</v>
       </c>
       <c r="B76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C76" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>91004</v>
       </c>
       <c r="B77" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C77" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>91005</v>
       </c>
       <c r="B78" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C78" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>91101</v>
       </c>
       <c r="B79" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C79" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>91102</v>
       </c>
       <c r="B80" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C80" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>91103</v>
       </c>
       <c r="B81" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C81" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>91200</v>
       </c>
       <c r="B82" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C82" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>91302</v>
       </c>
       <c r="B83" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C83" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>91304</v>
       </c>
       <c r="B84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C84" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>91305</v>
       </c>
@@ -4196,43 +4453,55 @@
         <v>382</v>
       </c>
       <c r="C85" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>91400</v>
       </c>
       <c r="B86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C86" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>91500</v>
       </c>
       <c r="B87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C87" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>91600</v>
       </c>
       <c r="B88" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C88" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9010101</v>
       </c>
@@ -4240,10 +4509,13 @@
         <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>9010102</v>
       </c>
@@ -4251,10 +4523,13 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9010103</v>
       </c>
@@ -4262,10 +4537,13 @@
         <v>37</v>
       </c>
       <c r="C91" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9010104</v>
       </c>
@@ -4273,10 +4551,13 @@
         <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>9010105</v>
       </c>
@@ -4284,10 +4565,13 @@
         <v>39</v>
       </c>
       <c r="C93" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9010106</v>
       </c>
@@ -4295,10 +4579,13 @@
         <v>40</v>
       </c>
       <c r="C94" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9010107</v>
       </c>
@@ -4306,10 +4593,13 @@
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>9010108</v>
       </c>
@@ -4317,10 +4607,13 @@
         <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9010109</v>
       </c>
@@ -4328,10 +4621,13 @@
         <v>43</v>
       </c>
       <c r="C97" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>9010110</v>
       </c>
@@ -4339,10 +4635,13 @@
         <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>9010111</v>
       </c>
@@ -4350,10 +4649,13 @@
         <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9010112</v>
       </c>
@@ -4361,10 +4663,13 @@
         <v>46</v>
       </c>
       <c r="C100" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9010113</v>
       </c>
@@ -4372,10 +4677,13 @@
         <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>9010201</v>
       </c>
@@ -4383,10 +4691,13 @@
         <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>9010202</v>
       </c>
@@ -4394,10 +4705,13 @@
         <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9010203</v>
       </c>
@@ -4405,10 +4719,13 @@
         <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>9010204</v>
       </c>
@@ -4416,10 +4733,13 @@
         <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9010205</v>
       </c>
@@ -4427,10 +4747,13 @@
         <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>9010206</v>
       </c>
@@ -4438,10 +4761,13 @@
         <v>53</v>
       </c>
       <c r="C107" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9010207</v>
       </c>
@@ -4449,10 +4775,13 @@
         <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>9010208</v>
       </c>
@@ -4460,10 +4789,13 @@
         <v>55</v>
       </c>
       <c r="C109" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9010209</v>
       </c>
@@ -4471,10 +4803,13 @@
         <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9010210</v>
       </c>
@@ -4482,10 +4817,13 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9010211</v>
       </c>
@@ -4493,10 +4831,13 @@
         <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>9010212</v>
       </c>
@@ -4504,10 +4845,13 @@
         <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9010301</v>
       </c>
@@ -4515,10 +4859,13 @@
         <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9010302</v>
       </c>
@@ -4526,10 +4873,13 @@
         <v>61</v>
       </c>
       <c r="C115" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>9010303</v>
       </c>
@@ -4537,10 +4887,13 @@
         <v>62</v>
       </c>
       <c r="C116" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>9010304</v>
       </c>
@@ -4548,10 +4901,13 @@
         <v>63</v>
       </c>
       <c r="C117" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>9010305</v>
       </c>
@@ -4559,10 +4915,13 @@
         <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9010306</v>
       </c>
@@ -4570,10 +4929,13 @@
         <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>9010307</v>
       </c>
@@ -4581,10 +4943,13 @@
         <v>66</v>
       </c>
       <c r="C120" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>9010308</v>
       </c>
@@ -4592,10 +4957,13 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>9010309</v>
       </c>
@@ -4603,10 +4971,13 @@
         <v>68</v>
       </c>
       <c r="C122" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>9010310</v>
       </c>
@@ -4614,10 +4985,13 @@
         <v>69</v>
       </c>
       <c r="C123" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>9010401</v>
       </c>
@@ -4625,10 +4999,13 @@
         <v>70</v>
       </c>
       <c r="C124" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>9010402</v>
       </c>
@@ -4636,10 +5013,13 @@
         <v>71</v>
       </c>
       <c r="C125" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>9010403</v>
       </c>
@@ -4647,10 +5027,13 @@
         <v>72</v>
       </c>
       <c r="C126" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>9010404</v>
       </c>
@@ -4658,10 +5041,13 @@
         <v>73</v>
       </c>
       <c r="C127" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>9010405</v>
       </c>
@@ -4669,10 +5055,13 @@
         <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>9010406</v>
       </c>
@@ -4680,10 +5069,13 @@
         <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9010407</v>
       </c>
@@ -4691,10 +5083,13 @@
         <v>76</v>
       </c>
       <c r="C130" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>9010408</v>
       </c>
@@ -4702,10 +5097,13 @@
         <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>9010409</v>
       </c>
@@ -4713,10 +5111,13 @@
         <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>9020101</v>
       </c>
@@ -4724,10 +5125,13 @@
         <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>9020102</v>
       </c>
@@ -4735,10 +5139,13 @@
         <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>9020103</v>
       </c>
@@ -4746,10 +5153,13 @@
         <v>81</v>
       </c>
       <c r="C135" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9020104</v>
       </c>
@@ -4757,10 +5167,13 @@
         <v>82</v>
       </c>
       <c r="C136" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>9020105</v>
       </c>
@@ -4768,10 +5181,13 @@
         <v>83</v>
       </c>
       <c r="C137" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>9020106</v>
       </c>
@@ -4779,10 +5195,13 @@
         <v>84</v>
       </c>
       <c r="C138" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+      <c r="D138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>9020107</v>
       </c>
@@ -4790,10 +5209,13 @@
         <v>85</v>
       </c>
       <c r="C139" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>9020108</v>
       </c>
@@ -4801,10 +5223,13 @@
         <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>9020109</v>
       </c>
@@ -4812,10 +5237,13 @@
         <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>9020110</v>
       </c>
@@ -4823,10 +5251,13 @@
         <v>88</v>
       </c>
       <c r="C142" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>9020111</v>
       </c>
@@ -4834,10 +5265,13 @@
         <v>89</v>
       </c>
       <c r="C143" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>9020112</v>
       </c>
@@ -4845,10 +5279,13 @@
         <v>90</v>
       </c>
       <c r="C144" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>9020113</v>
       </c>
@@ -4856,10 +5293,13 @@
         <v>91</v>
       </c>
       <c r="C145" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>9020114</v>
       </c>
@@ -4867,10 +5307,13 @@
         <v>92</v>
       </c>
       <c r="C146" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9020115</v>
       </c>
@@ -4878,10 +5321,13 @@
         <v>93</v>
       </c>
       <c r="C147" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9020116</v>
       </c>
@@ -4889,10 +5335,13 @@
         <v>94</v>
       </c>
       <c r="C148" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9020117</v>
       </c>
@@ -4900,10 +5349,13 @@
         <v>95</v>
       </c>
       <c r="C149" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9020118</v>
       </c>
@@ -4911,10 +5363,13 @@
         <v>96</v>
       </c>
       <c r="C150" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9020119</v>
       </c>
@@ -4922,10 +5377,13 @@
         <v>97</v>
       </c>
       <c r="C151" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9020120</v>
       </c>
@@ -4933,10 +5391,13 @@
         <v>98</v>
       </c>
       <c r="C152" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+      <c r="D152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>9020121</v>
       </c>
@@ -4944,10 +5405,13 @@
         <v>99</v>
       </c>
       <c r="C153" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>9020122</v>
       </c>
@@ -4955,10 +5419,13 @@
         <v>100</v>
       </c>
       <c r="C154" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9020123</v>
       </c>
@@ -4966,10 +5433,13 @@
         <v>101</v>
       </c>
       <c r="C155" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9020201</v>
       </c>
@@ -4977,10 +5447,13 @@
         <v>102</v>
       </c>
       <c r="C156" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>9020202</v>
       </c>
@@ -4988,10 +5461,13 @@
         <v>103</v>
       </c>
       <c r="C157" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9020203</v>
       </c>
@@ -4999,10 +5475,13 @@
         <v>104</v>
       </c>
       <c r="C158" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9020204</v>
       </c>
@@ -5010,10 +5489,13 @@
         <v>105</v>
       </c>
       <c r="C159" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9020205</v>
       </c>
@@ -5021,10 +5503,13 @@
         <v>106</v>
       </c>
       <c r="C160" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9020206</v>
       </c>
@@ -5032,10 +5517,13 @@
         <v>107</v>
       </c>
       <c r="C161" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9020207</v>
       </c>
@@ -5043,10 +5531,13 @@
         <v>108</v>
       </c>
       <c r="C162" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>9020208</v>
       </c>
@@ -5054,10 +5545,13 @@
         <v>109</v>
       </c>
       <c r="C163" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>9020209</v>
       </c>
@@ -5065,10 +5559,13 @@
         <v>110</v>
       </c>
       <c r="C164" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>9020210</v>
       </c>
@@ -5076,10 +5573,13 @@
         <v>111</v>
       </c>
       <c r="C165" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>9020211</v>
       </c>
@@ -5087,10 +5587,13 @@
         <v>112</v>
       </c>
       <c r="C166" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>9020212</v>
       </c>
@@ -5098,10 +5601,13 @@
         <v>113</v>
       </c>
       <c r="C167" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9020301</v>
       </c>
@@ -5109,10 +5615,13 @@
         <v>114</v>
       </c>
       <c r="C168" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>9020302</v>
       </c>
@@ -5120,10 +5629,13 @@
         <v>115</v>
       </c>
       <c r="C169" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>9020303</v>
       </c>
@@ -5131,10 +5643,13 @@
         <v>116</v>
       </c>
       <c r="C170" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>9020304</v>
       </c>
@@ -5142,10 +5657,13 @@
         <v>117</v>
       </c>
       <c r="C171" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9020305</v>
       </c>
@@ -5153,10 +5671,13 @@
         <v>118</v>
       </c>
       <c r="C172" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>9020306</v>
       </c>
@@ -5164,10 +5685,13 @@
         <v>119</v>
       </c>
       <c r="C173" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>9020307</v>
       </c>
@@ -5175,10 +5699,13 @@
         <v>120</v>
       </c>
       <c r="C174" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>9020308</v>
       </c>
@@ -5186,10 +5713,13 @@
         <v>121</v>
       </c>
       <c r="C175" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>9020309</v>
       </c>
@@ -5197,10 +5727,13 @@
         <v>122</v>
       </c>
       <c r="C176" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>9020310</v>
       </c>
@@ -5208,10 +5741,13 @@
         <v>123</v>
       </c>
       <c r="C177" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9020401</v>
       </c>
@@ -5219,10 +5755,13 @@
         <v>124</v>
       </c>
       <c r="C178" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9020402</v>
       </c>
@@ -5230,10 +5769,13 @@
         <v>125</v>
       </c>
       <c r="C179" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>9020403</v>
       </c>
@@ -5241,10 +5783,13 @@
         <v>126</v>
       </c>
       <c r="C180" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>9020404</v>
       </c>
@@ -5252,10 +5797,13 @@
         <v>127</v>
       </c>
       <c r="C181" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9020405</v>
       </c>
@@ -5263,10 +5811,13 @@
         <v>128</v>
       </c>
       <c r="C182" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>9020406</v>
       </c>
@@ -5274,10 +5825,13 @@
         <v>129</v>
       </c>
       <c r="C183" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9020407</v>
       </c>
@@ -5285,10 +5839,13 @@
         <v>130</v>
       </c>
       <c r="C184" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>9020408</v>
       </c>
@@ -5296,10 +5853,13 @@
         <v>131</v>
       </c>
       <c r="C185" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>9020409</v>
       </c>
@@ -5307,10 +5867,13 @@
         <v>132</v>
       </c>
       <c r="C186" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>9020410</v>
       </c>
@@ -5318,10 +5881,13 @@
         <v>133</v>
       </c>
       <c r="C187" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>9020411</v>
       </c>
@@ -5329,10 +5895,13 @@
         <v>134</v>
       </c>
       <c r="C188" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>9020412</v>
       </c>
@@ -5340,10 +5909,13 @@
         <v>135</v>
       </c>
       <c r="C189" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>9020413</v>
       </c>
@@ -5351,10 +5923,13 @@
         <v>136</v>
       </c>
       <c r="C190" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>9020501</v>
       </c>
@@ -5362,10 +5937,13 @@
         <v>137</v>
       </c>
       <c r="C191" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>9020502</v>
       </c>
@@ -5373,10 +5951,13 @@
         <v>138</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>9020503</v>
       </c>
@@ -5384,10 +5965,13 @@
         <v>139</v>
       </c>
       <c r="C193" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>9020504</v>
       </c>
@@ -5395,10 +5979,13 @@
         <v>140</v>
       </c>
       <c r="C194" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>9020505</v>
       </c>
@@ -5406,10 +5993,13 @@
         <v>141</v>
       </c>
       <c r="C195" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9020506</v>
       </c>
@@ -5417,10 +6007,13 @@
         <v>142</v>
       </c>
       <c r="C196" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>9020507</v>
       </c>
@@ -5428,10 +6021,13 @@
         <v>143</v>
       </c>
       <c r="C197" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>9020508</v>
       </c>
@@ -5439,10 +6035,13 @@
         <v>144</v>
       </c>
       <c r="C198" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>9020509</v>
       </c>
@@ -5450,10 +6049,13 @@
         <v>145</v>
       </c>
       <c r="C199" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>9020510</v>
       </c>
@@ -5461,10 +6063,13 @@
         <v>146</v>
       </c>
       <c r="C200" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>9020511</v>
       </c>
@@ -5472,10 +6077,13 @@
         <v>147</v>
       </c>
       <c r="C201" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>9020512</v>
       </c>
@@ -5483,10 +6091,13 @@
         <v>148</v>
       </c>
       <c r="C202" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>9020601</v>
       </c>
@@ -5494,10 +6105,13 @@
         <v>149</v>
       </c>
       <c r="C203" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>9020602</v>
       </c>
@@ -5505,10 +6119,13 @@
         <v>150</v>
       </c>
       <c r="C204" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>9020603</v>
       </c>
@@ -5516,10 +6133,13 @@
         <v>151</v>
       </c>
       <c r="C205" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>9020604</v>
       </c>
@@ -5527,10 +6147,13 @@
         <v>152</v>
       </c>
       <c r="C206" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>9020605</v>
       </c>
@@ -5538,10 +6161,13 @@
         <v>153</v>
       </c>
       <c r="C207" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>9020606</v>
       </c>
@@ -5549,10 +6175,13 @@
         <v>154</v>
       </c>
       <c r="C208" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>9020607</v>
       </c>
@@ -5560,10 +6189,13 @@
         <v>155</v>
       </c>
       <c r="C209" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>9020608</v>
       </c>
@@ -5571,10 +6203,13 @@
         <v>156</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>9020609</v>
       </c>
@@ -5582,10 +6217,13 @@
         <v>157</v>
       </c>
       <c r="C211" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>9020610</v>
       </c>
@@ -5593,10 +6231,13 @@
         <v>158</v>
       </c>
       <c r="C212" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>9020611</v>
       </c>
@@ -5604,10 +6245,13 @@
         <v>159</v>
       </c>
       <c r="C213" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>9020612</v>
       </c>
@@ -5615,10 +6259,13 @@
         <v>160</v>
       </c>
       <c r="C214" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>9020701</v>
       </c>
@@ -5626,10 +6273,13 @@
         <v>161</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>9020702</v>
       </c>
@@ -5637,10 +6287,13 @@
         <v>162</v>
       </c>
       <c r="C216" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>9020703</v>
       </c>
@@ -5648,10 +6301,13 @@
         <v>163</v>
       </c>
       <c r="C217" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>9020704</v>
       </c>
@@ -5659,10 +6315,13 @@
         <v>164</v>
       </c>
       <c r="C218" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>9020705</v>
       </c>
@@ -5670,10 +6329,13 @@
         <v>165</v>
       </c>
       <c r="C219" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>9020706</v>
       </c>
@@ -5681,10 +6343,13 @@
         <v>166</v>
       </c>
       <c r="C220" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>9020707</v>
       </c>
@@ -5692,10 +6357,13 @@
         <v>167</v>
       </c>
       <c r="C221" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9020708</v>
       </c>
@@ -5703,10 +6371,13 @@
         <v>168</v>
       </c>
       <c r="C222" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9020709</v>
       </c>
@@ -5714,10 +6385,13 @@
         <v>169</v>
       </c>
       <c r="C223" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>9020710</v>
       </c>
@@ -5725,10 +6399,13 @@
         <v>170</v>
       </c>
       <c r="C224" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>9020711</v>
       </c>
@@ -5736,10 +6413,13 @@
         <v>171</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>9020712</v>
       </c>
@@ -5747,10 +6427,13 @@
         <v>172</v>
       </c>
       <c r="C226" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>9020713</v>
       </c>
@@ -5758,10 +6441,13 @@
         <v>173</v>
       </c>
       <c r="C227" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>9020714</v>
       </c>
@@ -5769,10 +6455,13 @@
         <v>174</v>
       </c>
       <c r="C228" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>9030000</v>
       </c>
@@ -5780,10 +6469,13 @@
         <v>175</v>
       </c>
       <c r="C229" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9040001</v>
       </c>
@@ -5791,10 +6483,13 @@
         <v>176</v>
       </c>
       <c r="C230" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>9040002</v>
       </c>
@@ -5802,10 +6497,13 @@
         <v>177</v>
       </c>
       <c r="C231" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+      <c r="D231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9040003</v>
       </c>
@@ -5813,10 +6511,13 @@
         <v>178</v>
       </c>
       <c r="C232" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="D232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>9040004</v>
       </c>
@@ -5824,10 +6525,13 @@
         <v>179</v>
       </c>
       <c r="C233" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>9040005</v>
       </c>
@@ -5835,10 +6539,13 @@
         <v>180</v>
       </c>
       <c r="C234" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>9040006</v>
       </c>
@@ -5846,10 +6553,13 @@
         <v>181</v>
       </c>
       <c r="C235" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>9040007</v>
       </c>
@@ -5857,10 +6567,13 @@
         <v>182</v>
       </c>
       <c r="C236" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>9040008</v>
       </c>
@@ -5868,10 +6581,13 @@
         <v>183</v>
       </c>
       <c r="C237" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="D237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9040009</v>
       </c>
@@ -5879,10 +6595,13 @@
         <v>184</v>
       </c>
       <c r="C238" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>617</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>9040010</v>
       </c>
@@ -5890,10 +6609,13 @@
         <v>185</v>
       </c>
       <c r="C239" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>9040011</v>
       </c>
@@ -5901,10 +6623,13 @@
         <v>186</v>
       </c>
       <c r="C240" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>9040012</v>
       </c>
@@ -5912,10 +6637,13 @@
         <v>187</v>
       </c>
       <c r="C241" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="D241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>9040013</v>
       </c>
@@ -5923,10 +6651,13 @@
         <v>188</v>
       </c>
       <c r="C242" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>9040014</v>
       </c>
@@ -5934,10 +6665,13 @@
         <v>189</v>
       </c>
       <c r="C243" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9040015</v>
       </c>
@@ -5945,10 +6679,13 @@
         <v>190</v>
       </c>
       <c r="C244" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9040016</v>
       </c>
@@ -5956,10 +6693,13 @@
         <v>191</v>
       </c>
       <c r="C245" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="D245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>9040017</v>
       </c>
@@ -5967,10 +6707,13 @@
         <v>192</v>
       </c>
       <c r="C246" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="D246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>9040018</v>
       </c>
@@ -5978,10 +6721,13 @@
         <v>193</v>
       </c>
       <c r="C247" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>9050001</v>
       </c>
@@ -5989,10 +6735,13 @@
         <v>194</v>
       </c>
       <c r="C248" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+      <c r="D248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9050002</v>
       </c>
@@ -6000,10 +6749,13 @@
         <v>195</v>
       </c>
       <c r="C249" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="D249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9060000</v>
       </c>
@@ -6011,10 +6763,13 @@
         <v>196</v>
       </c>
       <c r="C250" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>9070101</v>
       </c>
@@ -6022,10 +6777,13 @@
         <v>197</v>
       </c>
       <c r="C251" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>9070102</v>
       </c>
@@ -6033,10 +6791,13 @@
         <v>198</v>
       </c>
       <c r="C252" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="D252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9070103</v>
       </c>
@@ -6044,10 +6805,13 @@
         <v>199</v>
       </c>
       <c r="C253" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>632</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>9070104</v>
       </c>
@@ -6055,10 +6819,13 @@
         <v>200</v>
       </c>
       <c r="C254" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="D254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>9070105</v>
       </c>
@@ -6066,10 +6833,13 @@
         <v>201</v>
       </c>
       <c r="C255" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>9070106</v>
       </c>
@@ -6077,10 +6847,13 @@
         <v>202</v>
       </c>
       <c r="C256" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>9070107</v>
       </c>
@@ -6088,10 +6861,13 @@
         <v>203</v>
       </c>
       <c r="C257" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>636</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>9070108</v>
       </c>
@@ -6099,10 +6875,13 @@
         <v>204</v>
       </c>
       <c r="C258" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>9070109</v>
       </c>
@@ -6110,10 +6889,13 @@
         <v>205</v>
       </c>
       <c r="C259" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>9070110</v>
       </c>
@@ -6121,10 +6903,13 @@
         <v>206</v>
       </c>
       <c r="C260" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>639</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>9070111</v>
       </c>
@@ -6132,10 +6917,13 @@
         <v>207</v>
       </c>
       <c r="C261" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>9070112</v>
       </c>
@@ -6143,10 +6931,13 @@
         <v>208</v>
       </c>
       <c r="C262" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>9070113</v>
       </c>
@@ -6154,10 +6945,13 @@
         <v>209</v>
       </c>
       <c r="C263" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>9070114</v>
       </c>
@@ -6165,10 +6959,13 @@
         <v>210</v>
       </c>
       <c r="C264" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>9070201</v>
       </c>
@@ -6176,10 +6973,13 @@
         <v>211</v>
       </c>
       <c r="C265" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>9070202</v>
       </c>
@@ -6187,10 +6987,13 @@
         <v>212</v>
       </c>
       <c r="C266" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+      <c r="D266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>9070203</v>
       </c>
@@ -6198,10 +7001,13 @@
         <v>213</v>
       </c>
       <c r="C267" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>9070204</v>
       </c>
@@ -6209,10 +7015,13 @@
         <v>214</v>
       </c>
       <c r="C268" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>9070205</v>
       </c>
@@ -6220,10 +7029,13 @@
         <v>215</v>
       </c>
       <c r="C269" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>9070301</v>
       </c>
@@ -6231,10 +7043,13 @@
         <v>216</v>
       </c>
       <c r="C270" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>9070302</v>
       </c>
@@ -6242,10 +7057,13 @@
         <v>217</v>
       </c>
       <c r="C271" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>9070303</v>
       </c>
@@ -6253,10 +7071,13 @@
         <v>218</v>
       </c>
       <c r="C272" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>9070304</v>
       </c>
@@ -6264,10 +7085,13 @@
         <v>219</v>
       </c>
       <c r="C273" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>9070305</v>
       </c>
@@ -6275,10 +7099,13 @@
         <v>220</v>
       </c>
       <c r="C274" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>9070306</v>
       </c>
@@ -6286,10 +7113,13 @@
         <v>221</v>
       </c>
       <c r="C275" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="D275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>9070307</v>
       </c>
@@ -6297,10 +7127,13 @@
         <v>222</v>
       </c>
       <c r="C276" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>9080003</v>
       </c>
@@ -6308,10 +7141,13 @@
         <v>223</v>
       </c>
       <c r="C277" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>9080004</v>
       </c>
@@ -6319,10 +7155,13 @@
         <v>224</v>
       </c>
       <c r="C278" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+      <c r="D278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>9080019</v>
       </c>
@@ -6330,10 +7169,13 @@
         <v>225</v>
       </c>
       <c r="C279" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+      <c r="D279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>9080020</v>
       </c>
@@ -6341,10 +7183,13 @@
         <v>226</v>
       </c>
       <c r="C280" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="D280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>9080021</v>
       </c>
@@ -6352,10 +7197,13 @@
         <v>227</v>
       </c>
       <c r="C281" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>9080022</v>
       </c>
@@ -6363,10 +7211,13 @@
         <v>228</v>
       </c>
       <c r="C282" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+      <c r="D282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9080023</v>
       </c>
@@ -6374,10 +7225,13 @@
         <v>229</v>
       </c>
       <c r="C283" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+      <c r="D283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>9080024</v>
       </c>
@@ -6385,10 +7239,13 @@
         <v>230</v>
       </c>
       <c r="C284" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="D284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>9090101</v>
       </c>
@@ -6396,10 +7253,13 @@
         <v>231</v>
       </c>
       <c r="C285" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="D285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>9090102</v>
       </c>
@@ -6407,10 +7267,13 @@
         <v>232</v>
       </c>
       <c r="C286" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>9090103</v>
       </c>
@@ -6418,10 +7281,13 @@
         <v>233</v>
       </c>
       <c r="C287" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>9090104</v>
       </c>
@@ -6429,10 +7295,13 @@
         <v>234</v>
       </c>
       <c r="C288" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+      <c r="D288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>9090106</v>
       </c>
@@ -6440,10 +7309,13 @@
         <v>235</v>
       </c>
       <c r="C289" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>9090107</v>
       </c>
@@ -6451,10 +7323,13 @@
         <v>236</v>
       </c>
       <c r="C290" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>9090108</v>
       </c>
@@ -6462,10 +7337,13 @@
         <v>237</v>
       </c>
       <c r="C291" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>9090110</v>
       </c>
@@ -6473,10 +7351,13 @@
         <v>238</v>
       </c>
       <c r="C292" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>9090111</v>
       </c>
@@ -6484,10 +7365,13 @@
         <v>239</v>
       </c>
       <c r="C293" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>9090112</v>
       </c>
@@ -6495,10 +7379,13 @@
         <v>240</v>
       </c>
       <c r="C294" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>9090202</v>
       </c>
@@ -6506,10 +7393,13 @@
         <v>241</v>
       </c>
       <c r="C295" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>9090203</v>
       </c>
@@ -6517,10 +7407,13 @@
         <v>242</v>
       </c>
       <c r="C296" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>9090205</v>
       </c>
@@ -6528,10 +7421,13 @@
         <v>243</v>
       </c>
       <c r="C297" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>9090206</v>
       </c>
@@ -6539,10 +7435,13 @@
         <v>244</v>
       </c>
       <c r="C298" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>9090207</v>
       </c>
@@ -6550,10 +7449,13 @@
         <v>245</v>
       </c>
       <c r="C299" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>9090208</v>
       </c>
@@ -6561,10 +7463,13 @@
         <v>246</v>
       </c>
       <c r="C300" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>9090209</v>
       </c>
@@ -6572,10 +7477,13 @@
         <v>247</v>
       </c>
       <c r="C301" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+      <c r="D301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>9090301</v>
       </c>
@@ -6583,10 +7491,13 @@
         <v>248</v>
       </c>
       <c r="C302" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="D302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>9090302</v>
       </c>
@@ -6594,10 +7505,13 @@
         <v>249</v>
       </c>
       <c r="C303" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+      <c r="D303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>9090303</v>
       </c>
@@ -6605,10 +7519,13 @@
         <v>250</v>
       </c>
       <c r="C304" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>9090304</v>
       </c>
@@ -6616,10 +7533,13 @@
         <v>251</v>
       </c>
       <c r="C305" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+      <c r="D305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>9090305</v>
       </c>
@@ -6627,10 +7547,13 @@
         <v>252</v>
       </c>
       <c r="C306" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>9090306</v>
       </c>
@@ -6638,10 +7561,13 @@
         <v>253</v>
       </c>
       <c r="C307" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="D307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>9090307</v>
       </c>
@@ -6649,10 +7575,13 @@
         <v>254</v>
       </c>
       <c r="C308" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>9090308</v>
       </c>
@@ -6660,10 +7589,13 @@
         <v>255</v>
       </c>
       <c r="C309" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+      <c r="D309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>9090309</v>
       </c>
@@ -6671,10 +7603,13 @@
         <v>256</v>
       </c>
       <c r="C310" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>689</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>9090310</v>
       </c>
@@ -6682,10 +7617,13 @@
         <v>257</v>
       </c>
       <c r="C311" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>9090311</v>
       </c>
@@ -6693,10 +7631,13 @@
         <v>258</v>
       </c>
       <c r="C312" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>9090401</v>
       </c>
@@ -6704,10 +7645,13 @@
         <v>259</v>
       </c>
       <c r="C313" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+      <c r="D313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>9090402</v>
       </c>
@@ -6715,10 +7659,13 @@
         <v>260</v>
       </c>
       <c r="C314" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+      <c r="D314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>9090403</v>
       </c>
@@ -6726,10 +7673,13 @@
         <v>261</v>
       </c>
       <c r="C315" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+      <c r="D315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>9090404</v>
       </c>
@@ -6737,10 +7687,13 @@
         <v>262</v>
       </c>
       <c r="C316" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="D316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>9090405</v>
       </c>
@@ -6748,10 +7701,13 @@
         <v>263</v>
       </c>
       <c r="C317" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>9090406</v>
       </c>
@@ -6759,10 +7715,13 @@
         <v>264</v>
       </c>
       <c r="C318" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>697</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>9090407</v>
       </c>
@@ -6770,10 +7729,13 @@
         <v>265</v>
       </c>
       <c r="C319" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+      <c r="D319">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>9090408</v>
       </c>
@@ -6781,10 +7743,13 @@
         <v>266</v>
       </c>
       <c r="C320" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="D320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>9090409</v>
       </c>
@@ -6792,10 +7757,13 @@
         <v>267</v>
       </c>
       <c r="C321" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+      <c r="D321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>9090410</v>
       </c>
@@ -6803,10 +7771,13 @@
         <v>268</v>
       </c>
       <c r="C322" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+      <c r="D322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>9090411</v>
       </c>
@@ -6814,10 +7785,13 @@
         <v>269</v>
       </c>
       <c r="C323" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+      <c r="D323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>9090412</v>
       </c>
@@ -6825,10 +7799,13 @@
         <v>270</v>
       </c>
       <c r="C324" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+      <c r="D324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>9090413</v>
       </c>
@@ -6836,10 +7813,13 @@
         <v>271</v>
       </c>
       <c r="C325" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="D325">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>9090414</v>
       </c>
@@ -6847,10 +7827,13 @@
         <v>272</v>
       </c>
       <c r="C326" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+      <c r="D326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>9090415</v>
       </c>
@@ -6858,10 +7841,13 @@
         <v>273</v>
       </c>
       <c r="C327" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+      <c r="D327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>9090416</v>
       </c>
@@ -6869,10 +7855,13 @@
         <v>274</v>
       </c>
       <c r="C328" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>9090417</v>
       </c>
@@ -6880,10 +7869,13 @@
         <v>275</v>
       </c>
       <c r="C329" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+      <c r="D329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>9100101</v>
       </c>
@@ -6891,10 +7883,13 @@
         <v>276</v>
       </c>
       <c r="C330" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+      <c r="D330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>9100102</v>
       </c>
@@ -6902,10 +7897,13 @@
         <v>277</v>
       </c>
       <c r="C331" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+      <c r="D331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>9100103</v>
       </c>
@@ -6913,10 +7911,13 @@
         <v>278</v>
       </c>
       <c r="C332" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="D332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>9100104</v>
       </c>
@@ -6924,10 +7925,13 @@
         <v>279</v>
       </c>
       <c r="C333" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="D333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>9100105</v>
       </c>
@@ -6935,10 +7939,13 @@
         <v>280</v>
       </c>
       <c r="C334" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+      <c r="D334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>9100106</v>
       </c>
@@ -6946,10 +7953,13 @@
         <v>281</v>
       </c>
       <c r="C335" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="D335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>9100107</v>
       </c>
@@ -6957,10 +7967,13 @@
         <v>282</v>
       </c>
       <c r="C336" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="D336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>9100108</v>
       </c>
@@ -6968,10 +7981,13 @@
         <v>283</v>
       </c>
       <c r="C337" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+      <c r="D337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>9100109</v>
       </c>
@@ -6979,10 +7995,13 @@
         <v>284</v>
       </c>
       <c r="C338" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+      <c r="D338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>9100110</v>
       </c>
@@ -6990,10 +8009,13 @@
         <v>285</v>
       </c>
       <c r="C339" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+      <c r="D339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>9100111</v>
       </c>
@@ -7001,10 +8023,13 @@
         <v>286</v>
       </c>
       <c r="C340" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+      <c r="D340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>9100112</v>
       </c>
@@ -7012,10 +8037,13 @@
         <v>287</v>
       </c>
       <c r="C341" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+      <c r="D341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>9100113</v>
       </c>
@@ -7023,10 +8051,13 @@
         <v>288</v>
       </c>
       <c r="C342" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+      <c r="D342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>9100114</v>
       </c>
@@ -7034,10 +8065,13 @@
         <v>289</v>
       </c>
       <c r="C343" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+      <c r="D343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>9100115</v>
       </c>
@@ -7045,10 +8079,13 @@
         <v>290</v>
       </c>
       <c r="C344" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+      <c r="D344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>9100202</v>
       </c>
@@ -7056,10 +8093,13 @@
         <v>291</v>
       </c>
       <c r="C345" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+      <c r="D345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>9100203</v>
       </c>
@@ -7067,10 +8107,13 @@
         <v>292</v>
       </c>
       <c r="C346" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="D346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>9100204</v>
       </c>
@@ -7078,10 +8121,13 @@
         <v>293</v>
       </c>
       <c r="C347" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+      <c r="D347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>9100206</v>
       </c>
@@ -7089,10 +8135,13 @@
         <v>294</v>
       </c>
       <c r="C348" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+      <c r="D348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>9100207</v>
       </c>
@@ -7100,10 +8149,13 @@
         <v>295</v>
       </c>
       <c r="C349" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+      <c r="D349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>9100208</v>
       </c>
@@ -7111,10 +8163,13 @@
         <v>296</v>
       </c>
       <c r="C350" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+      <c r="D350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>9100209</v>
       </c>
@@ -7122,10 +8177,13 @@
         <v>297</v>
       </c>
       <c r="C351" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+      <c r="D351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>9100210</v>
       </c>
@@ -7133,10 +8191,13 @@
         <v>298</v>
       </c>
       <c r="C352" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+      <c r="D352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>9100211</v>
       </c>
@@ -7144,10 +8205,13 @@
         <v>299</v>
       </c>
       <c r="C353" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="D353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>9100212</v>
       </c>
@@ -7155,10 +8219,13 @@
         <v>300</v>
       </c>
       <c r="C354" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="D354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>9100213</v>
       </c>
@@ -7166,10 +8233,13 @@
         <v>301</v>
       </c>
       <c r="C355" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="D355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>9100301</v>
       </c>
@@ -7177,10 +8247,13 @@
         <v>302</v>
       </c>
       <c r="C356" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="D356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>9100302</v>
       </c>
@@ -7188,10 +8261,13 @@
         <v>303</v>
       </c>
       <c r="C357" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="D357">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>9100303</v>
       </c>
@@ -7199,10 +8275,13 @@
         <v>304</v>
       </c>
       <c r="C358" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+      <c r="D358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>9100304</v>
       </c>
@@ -7210,10 +8289,13 @@
         <v>305</v>
       </c>
       <c r="C359" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="D359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>9100305</v>
       </c>
@@ -7221,10 +8303,13 @@
         <v>306</v>
       </c>
       <c r="C360" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+      <c r="D360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>9100306</v>
       </c>
@@ -7232,10 +8317,13 @@
         <v>307</v>
       </c>
       <c r="C361" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>9100307</v>
       </c>
@@ -7243,10 +8331,13 @@
         <v>308</v>
       </c>
       <c r="C362" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+      <c r="D362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>9100308</v>
       </c>
@@ -7254,10 +8345,13 @@
         <v>309</v>
       </c>
       <c r="C363" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="D363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>9100401</v>
       </c>
@@ -7265,10 +8359,13 @@
         <v>310</v>
       </c>
       <c r="C364" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>9100402</v>
       </c>
@@ -7276,10 +8373,13 @@
         <v>311</v>
       </c>
       <c r="C365" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>9100403</v>
       </c>
@@ -7287,10 +8387,13 @@
         <v>312</v>
       </c>
       <c r="C366" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>9100404</v>
       </c>
@@ -7298,10 +8401,13 @@
         <v>313</v>
       </c>
       <c r="C367" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="D367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>9100405</v>
       </c>
@@ -7309,10 +8415,13 @@
         <v>314</v>
       </c>
       <c r="C368" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+      <c r="D368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>9100406</v>
       </c>
@@ -7320,10 +8429,13 @@
         <v>315</v>
       </c>
       <c r="C369" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="D369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>9100407</v>
       </c>
@@ -7331,10 +8443,13 @@
         <v>316</v>
       </c>
       <c r="C370" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>9100501</v>
       </c>
@@ -7342,10 +8457,13 @@
         <v>317</v>
       </c>
       <c r="C371" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="D371">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>9100502</v>
       </c>
@@ -7353,10 +8471,13 @@
         <v>318</v>
       </c>
       <c r="C372" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+      <c r="D372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>9100503</v>
       </c>
@@ -7364,10 +8485,13 @@
         <v>319</v>
       </c>
       <c r="C373" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+      <c r="D373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>9100504</v>
       </c>
@@ -7375,10 +8499,13 @@
         <v>320</v>
       </c>
       <c r="C374" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+      <c r="D374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>9100505</v>
       </c>
@@ -7386,10 +8513,13 @@
         <v>321</v>
       </c>
       <c r="C375" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="D375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>9100506</v>
       </c>
@@ -7397,10 +8527,13 @@
         <v>322</v>
       </c>
       <c r="C376" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="D376">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>9100507</v>
       </c>
@@ -7408,10 +8541,13 @@
         <v>323</v>
       </c>
       <c r="C377" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="D377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>9100508</v>
       </c>
@@ -7419,10 +8555,13 @@
         <v>324</v>
       </c>
       <c r="C378" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>9100509</v>
       </c>
@@ -7430,10 +8569,13 @@
         <v>325</v>
       </c>
       <c r="C379" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+      <c r="D379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>9100510</v>
       </c>
@@ -7441,10 +8583,13 @@
         <v>326</v>
       </c>
       <c r="C380" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+      <c r="D380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>9100511</v>
       </c>
@@ -7452,10 +8597,13 @@
         <v>327</v>
       </c>
       <c r="C381" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="D381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>9100512</v>
       </c>
@@ -7463,10 +8611,13 @@
         <v>328</v>
       </c>
       <c r="C382" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="D382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>9110101</v>
       </c>
@@ -7474,10 +8625,13 @@
         <v>329</v>
       </c>
       <c r="C383" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="D383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>9110102</v>
       </c>
@@ -7485,10 +8639,13 @@
         <v>330</v>
       </c>
       <c r="C384" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+      <c r="D384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>9110103</v>
       </c>
@@ -7496,10 +8653,13 @@
         <v>331</v>
       </c>
       <c r="C385" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+      <c r="D385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>9110104</v>
       </c>
@@ -7507,10 +8667,13 @@
         <v>332</v>
       </c>
       <c r="C386" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+      <c r="D386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>9110105</v>
       </c>
@@ -7518,10 +8681,13 @@
         <v>333</v>
       </c>
       <c r="C387" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="D387">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>9110107</v>
       </c>
@@ -7529,10 +8695,13 @@
         <v>334</v>
       </c>
       <c r="C388" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+      <c r="D388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>9110108</v>
       </c>
@@ -7540,10 +8709,13 @@
         <v>335</v>
       </c>
       <c r="C389" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+      <c r="D389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>9110110</v>
       </c>
@@ -7551,10 +8723,13 @@
         <v>336</v>
       </c>
       <c r="C390" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+        <v>769</v>
+      </c>
+      <c r="D390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>9110111</v>
       </c>
@@ -7562,10 +8737,13 @@
         <v>337</v>
       </c>
       <c r="C391" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="D391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>9110112</v>
       </c>
@@ -7573,10 +8751,13 @@
         <v>338</v>
       </c>
       <c r="C392" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+      <c r="D392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>9110113</v>
       </c>
@@ -7584,10 +8765,13 @@
         <v>339</v>
       </c>
       <c r="C393" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+      <c r="D393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>9110201</v>
       </c>
@@ -7595,10 +8779,13 @@
         <v>340</v>
       </c>
       <c r="C394" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="D394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>9110202</v>
       </c>
@@ -7606,10 +8793,13 @@
         <v>341</v>
       </c>
       <c r="C395" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="D395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>9110203</v>
       </c>
@@ -7617,10 +8807,13 @@
         <v>342</v>
       </c>
       <c r="C396" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+      <c r="D396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>9110204</v>
       </c>
@@ -7628,10 +8821,13 @@
         <v>343</v>
       </c>
       <c r="C397" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>9110205</v>
       </c>
@@ -7639,10 +8835,13 @@
         <v>344</v>
       </c>
       <c r="C398" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+      <c r="D398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>9110301</v>
       </c>
@@ -7650,10 +8849,13 @@
         <v>345</v>
       </c>
       <c r="C399" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+      <c r="D399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>9110302</v>
       </c>
@@ -7661,10 +8863,13 @@
         <v>346</v>
       </c>
       <c r="C400" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+      <c r="D400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>9110303</v>
       </c>
@@ -7672,10 +8877,13 @@
         <v>347</v>
       </c>
       <c r="C401" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="D401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>9110304</v>
       </c>
@@ -7683,10 +8891,13 @@
         <v>348</v>
       </c>
       <c r="C402" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>9110305</v>
       </c>
@@ -7694,21 +8905,27 @@
         <v>349</v>
       </c>
       <c r="C403" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="D403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>9110306</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" t="s">
         <v>350</v>
       </c>
       <c r="C404" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>9110307</v>
       </c>
@@ -7716,10 +8933,13 @@
         <v>351</v>
       </c>
       <c r="C405" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+      <c r="D405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>9110308</v>
       </c>
@@ -7727,10 +8947,13 @@
         <v>352</v>
       </c>
       <c r="C406" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+        <v>785</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>9110309</v>
       </c>
@@ -7738,10 +8961,13 @@
         <v>353</v>
       </c>
       <c r="C407" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>9110310</v>
       </c>
@@ -7749,10 +8975,13 @@
         <v>354</v>
       </c>
       <c r="C408" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+        <v>787</v>
+      </c>
+      <c r="D408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>9110311</v>
       </c>
@@ -7760,10 +8989,13 @@
         <v>355</v>
       </c>
       <c r="C409" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+      <c r="D409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>9110312</v>
       </c>
@@ -7771,10 +9003,13 @@
         <v>356</v>
       </c>
       <c r="C410" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+      <c r="D410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>9110313</v>
       </c>
@@ -7782,10 +9017,13 @@
         <v>357</v>
       </c>
       <c r="C411" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+      <c r="D411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>9110314</v>
       </c>
@@ -7793,10 +9031,13 @@
         <v>358</v>
       </c>
       <c r="C412" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>9110315</v>
       </c>
@@ -7804,10 +9045,13 @@
         <v>359</v>
       </c>
       <c r="C413" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+        <v>792</v>
+      </c>
+      <c r="D413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>9110316</v>
       </c>
@@ -7815,10 +9059,13 @@
         <v>360</v>
       </c>
       <c r="C414" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="D414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>9110317</v>
       </c>
@@ -7826,10 +9073,13 @@
         <v>361</v>
       </c>
       <c r="C415" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+        <v>794</v>
+      </c>
+      <c r="D415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>9110318</v>
       </c>
@@ -7837,10 +9087,13 @@
         <v>362</v>
       </c>
       <c r="C416" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="D416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>9110319</v>
       </c>
@@ -7848,10 +9101,13 @@
         <v>363</v>
       </c>
       <c r="C417" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="D417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>9110320</v>
       </c>
@@ -7859,10 +9115,13 @@
         <v>364</v>
       </c>
       <c r="C418" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+      <c r="D418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>9120001</v>
       </c>
@@ -7870,10 +9129,13 @@
         <v>365</v>
       </c>
       <c r="C419" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="D419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>9120002</v>
       </c>
@@ -7881,10 +9143,13 @@
         <v>366</v>
       </c>
       <c r="C420" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+      <c r="D420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>9120003</v>
       </c>
@@ -7892,10 +9157,13 @@
         <v>367</v>
       </c>
       <c r="C421" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+      <c r="D421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>9120004</v>
       </c>
@@ -7903,10 +9171,13 @@
         <v>368</v>
       </c>
       <c r="C422" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+      <c r="D422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>9120005</v>
       </c>
@@ -7914,10 +9185,13 @@
         <v>369</v>
       </c>
       <c r="C423" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+      <c r="D423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>9120006</v>
       </c>
@@ -7925,10 +9199,13 @@
         <v>370</v>
       </c>
       <c r="C424" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="D424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>9130201</v>
       </c>
@@ -7936,10 +9213,13 @@
         <v>371</v>
       </c>
       <c r="C425" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+      <c r="D425">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>9130212</v>
       </c>
@@ -7947,10 +9227,13 @@
         <v>372</v>
       </c>
       <c r="C426" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+      <c r="D426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>9130213</v>
       </c>
@@ -7958,10 +9241,13 @@
         <v>373</v>
       </c>
       <c r="C427" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+      <c r="D427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>9130214</v>
       </c>
@@ -7969,10 +9255,13 @@
         <v>374</v>
       </c>
       <c r="C428" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+      <c r="D428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>9130215</v>
       </c>
@@ -7980,10 +9269,13 @@
         <v>375</v>
       </c>
       <c r="C429" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+      <c r="D429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>9130401</v>
       </c>
@@ -7991,10 +9283,13 @@
         <v>376</v>
       </c>
       <c r="C430" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+      <c r="D430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>9130402</v>
       </c>
@@ -8002,10 +9297,13 @@
         <v>377</v>
       </c>
       <c r="C431" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+      <c r="D431">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>9130403</v>
       </c>
@@ -8013,10 +9311,13 @@
         <v>378</v>
       </c>
       <c r="C432" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+      <c r="D432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>9130404</v>
       </c>
@@ -8024,10 +9325,13 @@
         <v>379</v>
       </c>
       <c r="C433" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+      <c r="D433">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>9130405</v>
       </c>
@@ -8035,10 +9339,13 @@
         <v>380</v>
       </c>
       <c r="C434" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="D434">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>9130501</v>
       </c>
@@ -8046,10 +9353,13 @@
         <v>381</v>
       </c>
       <c r="C435" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+      <c r="D435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>9130502</v>
       </c>
@@ -8057,10 +9367,13 @@
         <v>382</v>
       </c>
       <c r="C436" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+      <c r="D436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>9130503</v>
       </c>
@@ -8068,10 +9381,13 @@
         <v>383</v>
       </c>
       <c r="C437" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+      <c r="D437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>9140001</v>
       </c>
@@ -8079,10 +9395,13 @@
         <v>384</v>
       </c>
       <c r="C438" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+      <c r="D438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>9140002</v>
       </c>
@@ -8090,10 +9409,13 @@
         <v>385</v>
       </c>
       <c r="C439" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+      <c r="D439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>9140003</v>
       </c>
@@ -8101,10 +9423,13 @@
         <v>386</v>
       </c>
       <c r="C440" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="D440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>9140004</v>
       </c>
@@ -8112,10 +9437,13 @@
         <v>387</v>
       </c>
       <c r="C441" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="D441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>9140005</v>
       </c>
@@ -8123,10 +9451,13 @@
         <v>388</v>
       </c>
       <c r="C442" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="D442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>9140006</v>
       </c>
@@ -8134,10 +9465,13 @@
         <v>389</v>
       </c>
       <c r="C443" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="D443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>9140007</v>
       </c>
@@ -8145,10 +9479,13 @@
         <v>390</v>
       </c>
       <c r="C444" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>9140008</v>
       </c>
@@ -8156,10 +9493,13 @@
         <v>391</v>
       </c>
       <c r="C445" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="D445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>9140009</v>
       </c>
@@ -8167,10 +9507,13 @@
         <v>392</v>
       </c>
       <c r="C446" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>9140010</v>
       </c>
@@ -8178,10 +9521,13 @@
         <v>393</v>
       </c>
       <c r="C447" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="D447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>9140011</v>
       </c>
@@ -8189,10 +9535,13 @@
         <v>394</v>
       </c>
       <c r="C448" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="D448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>9140012</v>
       </c>
@@ -8200,10 +9549,13 @@
         <v>395</v>
       </c>
       <c r="C449" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="D449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>9140013</v>
       </c>
@@ -8211,10 +9563,13 @@
         <v>396</v>
       </c>
       <c r="C450" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="D450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>9140014</v>
       </c>
@@ -8222,10 +9577,13 @@
         <v>397</v>
       </c>
       <c r="C451" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>9150001</v>
       </c>
@@ -8233,10 +9591,13 @@
         <v>398</v>
       </c>
       <c r="C452" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="D452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>9150002</v>
       </c>
@@ -8244,10 +9605,13 @@
         <v>399</v>
       </c>
       <c r="C453" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="D453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>9150003</v>
       </c>
@@ -8255,10 +9619,13 @@
         <v>400</v>
       </c>
       <c r="C454" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+      <c r="D454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>9150004</v>
       </c>
@@ -8266,10 +9633,13 @@
         <v>401</v>
       </c>
       <c r="C455" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="D455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>9150005</v>
       </c>
@@ -8277,10 +9647,13 @@
         <v>402</v>
       </c>
       <c r="C456" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="D456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>9150006</v>
       </c>
@@ -8288,10 +9661,13 @@
         <v>403</v>
       </c>
       <c r="C457" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="D457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>9150007</v>
       </c>
@@ -8299,10 +9675,13 @@
         <v>404</v>
       </c>
       <c r="C458" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>9150008</v>
       </c>
@@ -8310,10 +9689,13 @@
         <v>405</v>
       </c>
       <c r="C459" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="D459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>9150009</v>
       </c>
@@ -8321,10 +9703,13 @@
         <v>406</v>
       </c>
       <c r="C460" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="D460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>9150010</v>
       </c>
@@ -8332,10 +9717,13 @@
         <v>407</v>
       </c>
       <c r="C461" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="D461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>9150011</v>
       </c>
@@ -8343,10 +9731,13 @@
         <v>408</v>
       </c>
       <c r="C462" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+      <c r="D462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>9150012</v>
       </c>
@@ -8354,10 +9745,13 @@
         <v>409</v>
       </c>
       <c r="C463" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>9150013</v>
       </c>
@@ -8365,10 +9759,13 @@
         <v>410</v>
       </c>
       <c r="C464" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+        <v>843</v>
+      </c>
+      <c r="D464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>9150014</v>
       </c>
@@ -8376,10 +9773,13 @@
         <v>411</v>
       </c>
       <c r="C465" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+      <c r="D465">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>9150015</v>
       </c>
@@ -8387,10 +9787,13 @@
         <v>412</v>
       </c>
       <c r="C466" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+      <c r="D466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>9160001</v>
       </c>
@@ -8398,10 +9801,13 @@
         <v>413</v>
       </c>
       <c r="C467" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+      <c r="D467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>9160002</v>
       </c>
@@ -8409,10 +9815,13 @@
         <v>414</v>
       </c>
       <c r="C468" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+      <c r="D468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>9160003</v>
       </c>
@@ -8420,10 +9829,13 @@
         <v>415</v>
       </c>
       <c r="C469" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="D469">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>9160004</v>
       </c>
@@ -8431,10 +9843,13 @@
         <v>416</v>
       </c>
       <c r="C470" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="D470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>9160005</v>
       </c>
@@ -8442,10 +9857,13 @@
         <v>417</v>
       </c>
       <c r="C471" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="D471">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>9160006</v>
       </c>
@@ -8453,10 +9871,13 @@
         <v>418</v>
       </c>
       <c r="C472" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="D472">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>9160007</v>
       </c>
@@ -8464,10 +9885,13 @@
         <v>419</v>
       </c>
       <c r="C473" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="D473">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>9160009</v>
       </c>
@@ -8475,10 +9899,13 @@
         <v>420</v>
       </c>
       <c r="C474" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+      <c r="D474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>9160010</v>
       </c>
@@ -8486,10 +9913,13 @@
         <v>421</v>
       </c>
       <c r="C475" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="D475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>9160011</v>
       </c>
@@ -8497,10 +9927,13 @@
         <v>422</v>
       </c>
       <c r="C476" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+      <c r="D476">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>9160012</v>
       </c>
@@ -8508,10 +9941,13 @@
         <v>423</v>
       </c>
       <c r="C477" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="D477">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>9160013</v>
       </c>
@@ -8519,10 +9955,13 @@
         <v>424</v>
       </c>
       <c r="C478" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="D478">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>9160014</v>
       </c>
@@ -8530,10 +9969,13 @@
         <v>425</v>
       </c>
       <c r="C479" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="D479">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>9160015</v>
       </c>
@@ -8541,10 +9983,13 @@
         <v>426</v>
       </c>
       <c r="C480" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="D480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>9160016</v>
       </c>
@@ -8552,10 +9997,13 @@
         <v>427</v>
       </c>
       <c r="C481" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="D481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>9160017</v>
       </c>
@@ -8563,10 +10011,13 @@
         <v>428</v>
       </c>
       <c r="C482" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+      <c r="D482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>9160018</v>
       </c>
@@ -8574,10 +10025,13 @@
         <v>429</v>
       </c>
       <c r="C483" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="D483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>9160019</v>
       </c>
@@ -8585,10 +10039,13 @@
         <v>430</v>
       </c>
       <c r="C484" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="D484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>9160020</v>
       </c>
@@ -8596,10 +10053,13 @@
         <v>431</v>
       </c>
       <c r="C485" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="D485">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>9160021</v>
       </c>
@@ -8607,10 +10067,13 @@
         <v>432</v>
       </c>
       <c r="C486" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="D486">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>9160022</v>
       </c>
@@ -8618,10 +10081,13 @@
         <v>433</v>
       </c>
       <c r="C487" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="D487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>9160023</v>
       </c>
@@ -8629,10 +10095,13 @@
         <v>434</v>
       </c>
       <c r="C488" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="D488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>9160025</v>
       </c>
@@ -8640,7 +10109,10 @@
         <v>435</v>
       </c>
       <c r="C489" t="s">
-        <v>869</v>
+        <v>868</v>
+      </c>
+      <c r="D489">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/models/ids/ID_Region.xlsx
+++ b/models/ids/ID_Region.xlsx
@@ -3,17 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C8FF6B-D875-AC4D-BCD2-81D40528F0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED080371-4BE5-D54A-B367-569872397CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="-20060" windowWidth="22260" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1000" yWindow="-20660" windowWidth="32020" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3257,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
